--- a/week 6/ریاضی/Skale(V3.6).xlsx
+++ b/week 6/ریاضی/Skale(V3.6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\محمدی\skale week\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\week 6\ریاضی\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="77">
   <si>
     <t>نام</t>
   </si>
@@ -228,6 +228,39 @@
   </si>
   <si>
     <t>کلید</t>
+  </si>
+  <si>
+    <t>محمدامین لطفی حاجی آقا</t>
+  </si>
+  <si>
+    <t>محمدپارسا عباس زاده کلائی</t>
+  </si>
+  <si>
+    <t>علیرضا باقری هوجقان</t>
+  </si>
+  <si>
+    <t>حسین محسن وند بناب</t>
+  </si>
+  <si>
+    <t>امین بابایی خمیران</t>
+  </si>
+  <si>
+    <t>امیررضا متولی الموتی</t>
+  </si>
+  <si>
+    <t>بنیامین لطفی کاظمی</t>
+  </si>
+  <si>
+    <t>امیرمهدی امانی پیرگلین</t>
+  </si>
+  <si>
+    <t>محمدجواد امیدی شورجه</t>
+  </si>
+  <si>
+    <t>محسن موسیوندارزانفودی</t>
+  </si>
+  <si>
+    <t>هادی آذری ایردموسی</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1463,354 +1496,754 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1032</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="44">
+        <v>1</v>
+      </c>
       <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="44">
+        <v>4</v>
+      </c>
+      <c r="J2" s="44">
+        <v>1</v>
+      </c>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1022</v>
+      </c>
+      <c r="C3" s="44">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1</v>
+      </c>
       <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44">
+        <v>2</v>
+      </c>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44">
+        <v>3</v>
+      </c>
+      <c r="H4" s="44">
+        <v>2</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3</v>
+      </c>
+      <c r="J4" s="44">
+        <v>1</v>
+      </c>
+      <c r="K4" s="44">
+        <v>2</v>
+      </c>
+      <c r="L4" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44">
+        <v>3</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="44">
+        <v>3</v>
+      </c>
+      <c r="H5" s="44">
+        <v>2</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3</v>
+      </c>
+      <c r="J5" s="44">
+        <v>1</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2</v>
+      </c>
+      <c r="L5" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1038</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44">
+        <v>2</v>
+      </c>
+      <c r="E7" s="44">
+        <v>3</v>
+      </c>
+      <c r="F7" s="44">
+        <v>4</v>
+      </c>
+      <c r="G7" s="44">
+        <v>4</v>
+      </c>
+      <c r="H7" s="44">
+        <v>4</v>
+      </c>
+      <c r="I7" s="44">
+        <v>4</v>
+      </c>
+      <c r="J7" s="44">
+        <v>1</v>
+      </c>
+      <c r="K7" s="44">
+        <v>2</v>
+      </c>
+      <c r="L7" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="A8" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1035</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44">
+        <v>4</v>
+      </c>
+      <c r="G8" s="44">
+        <v>3</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="44">
+        <v>2</v>
+      </c>
+      <c r="J8" s="44">
+        <v>4</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1029</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44">
+        <v>2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>2</v>
+      </c>
       <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="H9" s="44">
+        <v>3</v>
+      </c>
+      <c r="I9" s="44">
+        <v>1</v>
+      </c>
+      <c r="J9" s="44">
+        <v>4</v>
+      </c>
+      <c r="K9" s="44">
+        <v>4</v>
+      </c>
+      <c r="L9" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>3</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="44">
+        <v>3</v>
+      </c>
+      <c r="H10" s="44">
+        <v>2</v>
+      </c>
+      <c r="I10" s="44">
+        <v>3</v>
+      </c>
+      <c r="J10" s="44">
+        <v>1</v>
+      </c>
+      <c r="K10" s="44">
+        <v>2</v>
+      </c>
+      <c r="L10" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1026</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44">
+        <v>3</v>
+      </c>
+      <c r="F11" s="44">
+        <v>4</v>
+      </c>
+      <c r="G11" s="44">
+        <v>3</v>
+      </c>
+      <c r="H11" s="44">
+        <v>2</v>
+      </c>
+      <c r="I11" s="44">
+        <v>3</v>
+      </c>
+      <c r="J11" s="44">
+        <v>2</v>
+      </c>
+      <c r="K11" s="44">
+        <v>2</v>
+      </c>
+      <c r="L11" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C12" s="44">
+        <v>2</v>
+      </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="44">
+        <v>4</v>
+      </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="I12" s="44">
+        <v>3</v>
+      </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="44">
+        <v>3</v>
+      </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="44">
+        <v>2</v>
+      </c>
+      <c r="I13" s="44">
+        <v>3</v>
+      </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1030</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44">
+        <v>4</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
+      <c r="K14" s="44">
+        <v>3</v>
+      </c>
+      <c r="L14" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1021</v>
+      </c>
       <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="D15" s="44">
+        <v>3</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="44">
+        <v>4</v>
+      </c>
       <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="44">
+        <v>3</v>
+      </c>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
+      <c r="A16" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1034</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44">
+        <v>2</v>
+      </c>
+      <c r="I16" s="44">
+        <v>4</v>
+      </c>
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+      <c r="K16" s="44">
+        <v>4</v>
+      </c>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="A17" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1033</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44">
+        <v>4</v>
+      </c>
       <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="44">
+        <v>1</v>
+      </c>
       <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="A18" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1017</v>
+      </c>
+      <c r="C18" s="44">
+        <v>2</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>3</v>
+      </c>
+      <c r="F18" s="44">
+        <v>4</v>
+      </c>
+      <c r="G18" s="44">
+        <v>3</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44">
+        <v>3</v>
+      </c>
+      <c r="J18" s="44">
+        <v>1</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
+      <c r="A19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C19" s="44">
+        <v>4</v>
+      </c>
+      <c r="D19" s="44">
+        <v>3</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44">
+        <v>4</v>
+      </c>
+      <c r="G19" s="44">
+        <v>1</v>
+      </c>
+      <c r="H19" s="44">
+        <v>2</v>
+      </c>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="A20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="44">
+        <v>1</v>
+      </c>
+      <c r="D20" s="44">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44">
+        <v>3</v>
+      </c>
+      <c r="F20" s="44">
+        <v>4</v>
+      </c>
+      <c r="G20" s="44">
+        <v>3</v>
+      </c>
+      <c r="H20" s="44">
+        <v>2</v>
+      </c>
+      <c r="I20" s="44">
+        <v>3</v>
+      </c>
+      <c r="J20" s="44">
+        <v>1</v>
+      </c>
+      <c r="K20" s="44">
+        <v>2</v>
+      </c>
+      <c r="L20" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="A21" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="44">
+        <v>1039</v>
+      </c>
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44">
+        <v>4</v>
+      </c>
+      <c r="G21" s="44">
+        <v>3</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="44">
+        <v>3</v>
+      </c>
       <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="K21" s="44">
+        <v>2</v>
+      </c>
+      <c r="L21" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="44"/>
+      <c r="A22" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1028</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44">
+        <v>4</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44">
+        <v>2</v>
+      </c>
+      <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="J22" s="44">
+        <v>1</v>
+      </c>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="A23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1023</v>
+      </c>
+      <c r="C23" s="44">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>3</v>
+      </c>
+      <c r="E23" s="44">
+        <v>3</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44">
+        <v>3</v>
+      </c>
+      <c r="H23" s="44">
+        <v>4</v>
+      </c>
+      <c r="I23" s="44">
+        <v>2</v>
+      </c>
+      <c r="J23" s="44">
+        <v>1</v>
+      </c>
+      <c r="K23" s="44">
+        <v>4</v>
+      </c>
+      <c r="L23" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C24" s="44">
+        <v>2</v>
+      </c>
+      <c r="D24" s="44">
+        <v>3</v>
+      </c>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="44">
+        <v>2</v>
+      </c>
+      <c r="I24" s="44">
+        <v>4</v>
+      </c>
       <c r="J24" s="45"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="44">
+        <v>4</v>
+      </c>
+      <c r="L24" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="A25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C25" s="44">
+        <v>4</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="44">
+        <v>2</v>
+      </c>
+      <c r="F25" s="45"/>
       <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="H25" s="44">
+        <v>3</v>
+      </c>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="44">
+        <v>4</v>
+      </c>
+      <c r="L25" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="A26" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="44">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="44"/>
+      <c r="H26" s="44">
+        <v>4</v>
+      </c>
+      <c r="I26" s="44">
+        <v>4</v>
+      </c>
+      <c r="J26" s="44">
+        <v>2</v>
+      </c>
+      <c r="K26" s="44">
+        <v>4</v>
+      </c>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,138 +2253,282 @@
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="45"/>
       <c r="I27" s="44"/>
       <c r="J27" s="45"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="A28" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1036</v>
+      </c>
+      <c r="C28" s="44">
+        <v>2</v>
+      </c>
+      <c r="D28" s="44">
+        <v>3</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44">
+        <v>4</v>
+      </c>
       <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="45"/>
       <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="L28" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C29" s="44">
+        <v>2</v>
+      </c>
+      <c r="D29" s="45"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="F29" s="44">
+        <v>4</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="44">
+        <v>1</v>
+      </c>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="A30" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="44">
+        <v>2</v>
+      </c>
+      <c r="D30" s="44">
+        <v>3</v>
+      </c>
+      <c r="E30" s="44">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="H30" s="44">
+        <v>2</v>
+      </c>
+      <c r="I30" s="44">
+        <v>4</v>
+      </c>
       <c r="J30" s="45"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="44">
+        <v>4</v>
+      </c>
+      <c r="L30" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="A31" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1040</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="E31" s="44">
+        <v>4</v>
+      </c>
+      <c r="F31" s="44">
+        <v>2</v>
+      </c>
+      <c r="G31" s="44">
+        <v>3</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="44">
+        <v>3</v>
+      </c>
       <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="44"/>
+      <c r="K31" s="44">
+        <v>2</v>
+      </c>
+      <c r="L31" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
+      <c r="A32" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1015</v>
+      </c>
+      <c r="C32" s="44">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44">
+        <v>4</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44">
+        <v>4</v>
+      </c>
+      <c r="G32" s="44">
+        <v>3</v>
+      </c>
+      <c r="H32" s="44">
+        <v>2</v>
+      </c>
+      <c r="I32" s="44">
+        <v>3</v>
+      </c>
+      <c r="J32" s="44">
+        <v>1</v>
+      </c>
+      <c r="K32" s="44">
+        <v>2</v>
+      </c>
+      <c r="L32" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1018</v>
+      </c>
+      <c r="C33" s="44">
+        <v>4</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44">
+        <v>1</v>
+      </c>
       <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
+      <c r="G33" s="44">
+        <v>2</v>
+      </c>
       <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
+      <c r="I33" s="44">
+        <v>1</v>
+      </c>
+      <c r="J33" s="44">
+        <v>1</v>
+      </c>
       <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="L33" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1001</v>
+      </c>
+      <c r="C34" s="44">
+        <v>4</v>
+      </c>
+      <c r="D34" s="44">
+        <v>4</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="44">
+        <v>3</v>
+      </c>
       <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="44">
+        <v>1</v>
+      </c>
+      <c r="J34" s="44">
+        <v>1</v>
+      </c>
+      <c r="K34" s="45"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C35" s="44">
+        <v>2</v>
+      </c>
+      <c r="D35" s="44">
+        <v>4</v>
+      </c>
+      <c r="E35" s="44">
+        <v>3</v>
+      </c>
+      <c r="F35" s="44">
+        <v>3</v>
+      </c>
       <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="H35" s="44">
+        <v>3</v>
+      </c>
+      <c r="I35" s="44">
+        <v>3</v>
+      </c>
+      <c r="J35" s="44">
+        <v>1</v>
+      </c>
+      <c r="K35" s="44">
+        <v>2</v>
+      </c>
+      <c r="L35" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="44">
+        <v>1025</v>
+      </c>
+      <c r="C36" s="44">
+        <v>2</v>
+      </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44">
+        <v>4</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="44">
+        <v>2</v>
+      </c>
+      <c r="I36" s="44">
+        <v>3</v>
+      </c>
+      <c r="J36" s="44">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
@@ -2092,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="B2:K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2140,16 +2717,36 @@
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2226,17 +2823,17 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="11" t="str">
         <f>گوگل!A2</f>
-        <v>0</v>
+        <v>محمدامین لطفی حاجی آقا</v>
       </c>
       <c r="B2" s="11">
         <f>گوگل!B2</f>
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
@@ -2244,23 +2841,23 @@
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
@@ -2268,25 +2865,25 @@
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>100</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="11" t="str">
         <f>گوگل!A3</f>
-        <v>0</v>
+        <v>محمدپارسا عباس زاده کلائی</v>
       </c>
       <c r="B3" s="11">
         <f>گوگل!B3</f>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
@@ -2298,7 +2895,7 @@
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
@@ -2306,11 +2903,11 @@
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
@@ -2326,21 +2923,21 @@
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="11" t="str">
         <f>گوگل!A4</f>
-        <v>0</v>
+        <v>هومن حدیدی</v>
       </c>
       <c r="B4" s="11">
         <f>گوگل!B4</f>
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
@@ -2356,7 +2953,7 @@
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
@@ -2384,17 +2981,17 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="str">
         <f>گوگل!A5</f>
-        <v>0</v>
+        <v>علیرضا باقری هوجقان</v>
       </c>
       <c r="B5" s="11">
         <f>گوگل!B5</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
@@ -2452,65 +3049,65 @@
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="11" t="str">
         <f>گوگل!A7</f>
-        <v>0</v>
+        <v>دانیل میری</v>
       </c>
       <c r="B7" s="11">
         <f>گوگل!B7</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
@@ -2522,15 +3119,15 @@
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
@@ -2546,17 +3143,17 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="11" t="str">
         <f>گوگل!A8</f>
-        <v>0</v>
+        <v>حسین محسن وند بناب</v>
       </c>
       <c r="B8" s="11">
         <f>گوگل!B8</f>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
@@ -2568,7 +3165,7 @@
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
@@ -2580,91 +3177,91 @@
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="11" t="str">
         <f>گوگل!A9</f>
-        <v>0</v>
+        <v>امیرمهدی قاسمی</v>
       </c>
       <c r="B9" s="11">
         <f>گوگل!B9</f>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-26.666666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="11" t="str">
         <f>گوگل!A10</f>
-        <v>0</v>
+        <v>آرین پاشازاده</v>
       </c>
       <c r="B10" s="11">
         <f>گوگل!B10</f>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
@@ -2680,7 +3277,7 @@
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
@@ -2704,21 +3301,21 @@
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="11" t="str">
         <f>گوگل!A11</f>
-        <v>0</v>
+        <v>علی اصغر علیشاه نژاد</v>
       </c>
       <c r="B11" s="11">
         <f>گوگل!B11</f>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
@@ -2750,7 +3347,7 @@
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
@@ -2762,17 +3359,17 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="11" t="str">
         <f>گوگل!A12</f>
-        <v>0</v>
+        <v>محمدامین حسین نژاد</v>
       </c>
       <c r="B12" s="11">
         <f>گوگل!B12</f>
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
@@ -2780,11 +3377,11 @@
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
@@ -2792,11 +3389,11 @@
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
@@ -2804,49 +3401,49 @@
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="11" t="str">
         <f>گوگل!A13</f>
-        <v>0</v>
+        <v>امین بابایی خمیران</v>
       </c>
       <c r="B13" s="11">
         <f>گوگل!B13</f>
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
@@ -2858,29 +3455,29 @@
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="11" t="str">
         <f>گوگل!A14</f>
-        <v>0</v>
+        <v>ابوالفضل کوکبی</v>
       </c>
       <c r="B14" s="11">
         <f>گوگل!B14</f>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
@@ -2888,11 +3485,11 @@
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
@@ -2900,23 +3497,23 @@
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
@@ -2924,91 +3521,91 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="11" t="str">
         <f>گوگل!A15</f>
-        <v>0</v>
+        <v>امیررضا صدیقی</v>
       </c>
       <c r="B15" s="11">
         <f>گوگل!B15</f>
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
         <f>IF(گوگل!F15=کلید!E$2,3,IF(گوگل!F15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>IF(گوگل!G15=کلید!F$2,3,IF(گوگل!G15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="12">
         <f>IF(گوگل!K15=کلید!J$2,3,IF(گوگل!K15="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="12">
         <f>IF(گوگل!L15=کلید!K$2,3,IF(گوگل!L15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="11" t="str">
         <f>گوگل!A16</f>
-        <v>0</v>
+        <v>امیررضا متولی الموتی</v>
       </c>
       <c r="B16" s="11">
         <f>گوگل!B16</f>
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
@@ -3016,37 +3613,37 @@
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="11" t="str">
         <f>گوگل!A17</f>
-        <v>0</v>
+        <v>بنیامین لطفی کاظمی</v>
       </c>
       <c r="B17" s="11">
         <f>گوگل!B17</f>
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
@@ -3054,7 +3651,7 @@
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
@@ -3062,15 +3659,15 @@
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
@@ -3078,25 +3675,25 @@
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="11" t="str">
         <f>گوگل!A18</f>
-        <v>0</v>
+        <v>دانیال رجبی</v>
       </c>
       <c r="B18" s="11">
         <f>گوگل!B18</f>
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
@@ -3120,7 +3717,7 @@
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
@@ -3132,7 +3729,7 @@
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
@@ -3140,29 +3737,29 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="11" t="str">
         <f>گوگل!A19</f>
-        <v>0</v>
+        <v>امیرمهدی امانی پیرگلین</v>
       </c>
       <c r="B19" s="11">
         <f>گوگل!B19</f>
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
@@ -3170,7 +3767,7 @@
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
@@ -3178,37 +3775,37 @@
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="11" t="str">
         <f>گوگل!A20</f>
-        <v>0</v>
+        <v>محمد صادقی</v>
       </c>
       <c r="B20" s="11">
         <f>گوگل!B20</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
@@ -3248,17 +3845,17 @@
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="11" t="str">
         <f>گوگل!A21</f>
-        <v>0</v>
+        <v>نیما نجفی</v>
       </c>
       <c r="B21" s="11">
         <f>گوگل!B21</f>
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
@@ -3270,7 +3867,7 @@
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
@@ -3282,7 +3879,7 @@
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
@@ -3290,7 +3887,7 @@
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
@@ -3302,21 +3899,21 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="11" t="str">
         <f>گوگل!A22</f>
-        <v>0</v>
+        <v>امیرحسین قاسمی</v>
       </c>
       <c r="B22" s="11">
         <f>گوگل!B22</f>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
@@ -3324,23 +3921,23 @@
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
@@ -3348,25 +3945,25 @@
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="11" t="str">
         <f>گوگل!A23</f>
-        <v>0</v>
+        <v>سینا عبدپور</v>
       </c>
       <c r="B23" s="11">
         <f>گوگل!B23</f>
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
@@ -3374,7 +3971,7 @@
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
@@ -3382,7 +3979,7 @@
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
@@ -3390,11 +3987,11 @@
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
@@ -3402,7 +3999,7 @@
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
@@ -3410,17 +4007,17 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="11" t="str">
         <f>گوگل!A24</f>
-        <v>0</v>
+        <v>علی بشیرزاده</v>
       </c>
       <c r="B24" s="11">
         <f>گوگل!B24</f>
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
@@ -3428,19 +4025,19 @@
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="12">
         <f>IF(گوگل!E24=کلید!D$2,3,IF(گوگل!E24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="12">
         <f>IF(گوگل!F24=کلید!E$2,3,IF(گوگل!F24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="12">
         <f>IF(گوگل!G24=کلید!F$2,3,IF(گوگل!G24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
@@ -3448,15 +4045,15 @@
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
@@ -3464,53 +4061,53 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="11" t="str">
         <f>گوگل!A25</f>
-        <v>0</v>
+        <v>محمدجواد امیدی شورجه</v>
       </c>
       <c r="B25" s="11">
         <f>گوگل!B25</f>
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
@@ -3518,61 +4115,61 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="11" t="str">
         <f>گوگل!A26</f>
-        <v>0</v>
+        <v>محسن موسیوندارزانفودی</v>
       </c>
       <c r="B26" s="11">
         <f>گوگل!B26</f>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3586,57 +4183,57 @@
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="11" t="str">
         <f>گوگل!A28</f>
-        <v>0</v>
+        <v>علی محمدی</v>
       </c>
       <c r="B28" s="11">
         <f>گوگل!B28</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
@@ -3644,11 +4241,11 @@
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
@@ -3656,23 +4253,23 @@
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
@@ -3680,17 +4277,17 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="11" t="str">
         <f>گوگل!A29</f>
-        <v>0</v>
+        <v>هادی آذری ایردموسی</v>
       </c>
       <c r="B29" s="11">
         <f>گوگل!B29</f>
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
@@ -3698,11 +4295,11 @@
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
@@ -3710,15 +4307,15 @@
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
@@ -3726,25 +4323,25 @@
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>گوگل!A30</f>
-        <v>0</v>
+        <v>محمد عسگری</v>
       </c>
       <c r="B30" s="11">
         <f>گوگل!B30</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
@@ -3752,7 +4349,7 @@
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
@@ -3760,11 +4357,11 @@
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
@@ -3772,15 +4369,15 @@
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
@@ -3788,33 +4385,33 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="11" t="str">
         <f>گوگل!A31</f>
-        <v>0</v>
+        <v>بهراد وقاری</v>
       </c>
       <c r="B31" s="11">
         <f>گوگل!B31</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
@@ -3822,7 +4419,7 @@
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
@@ -3830,7 +4427,7 @@
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
@@ -3838,21 +4435,21 @@
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="11" t="str">
         <f>گوگل!A32</f>
-        <v>0</v>
+        <v>سید مهدی درخشان</v>
       </c>
       <c r="B32" s="11">
         <f>گوگل!B32</f>
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
@@ -3860,11 +4457,11 @@
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
@@ -3896,45 +4493,45 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="11" t="str">
         <f>گوگل!A33</f>
-        <v>0</v>
+        <v>علی شعبانی</v>
       </c>
       <c r="B33" s="11">
         <f>گوگل!B33</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
@@ -3942,7 +4539,7 @@
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
@@ -3950,45 +4547,45 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="11" t="str">
         <f>گوگل!A34</f>
-        <v>0</v>
+        <v>امیرحسین ابوئی</v>
       </c>
       <c r="B34" s="11">
         <f>گوگل!B34</f>
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
@@ -3996,25 +4593,25 @@
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="11" t="str">
         <f>گوگل!A35</f>
-        <v>0</v>
+        <v>محمدمهدی امیدی</v>
       </c>
       <c r="B35" s="11">
         <f>گوگل!B35</f>
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
@@ -4022,7 +4619,7 @@
       </c>
       <c r="D35" s="12">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
@@ -4030,15 +4627,15 @@
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
@@ -4054,21 +4651,21 @@
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="11" t="str">
         <f>گوگل!A36</f>
-        <v>0</v>
+        <v>محمدحسین علیجانی</v>
       </c>
       <c r="B36" s="11">
         <f>گوگل!B36</f>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="C36" s="12">
         <f>IF(گوگل!C36=کلید!B$2,3,IF(گوگل!C36="",0,-1))</f>
@@ -4076,11 +4673,11 @@
       </c>
       <c r="D36" s="12">
         <f>IF(گوگل!D36=کلید!C$2,3,IF(گوگل!D36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="12">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
@@ -4088,7 +4685,7 @@
       </c>
       <c r="G36" s="12">
         <f>IF(گوگل!G36=کلید!F$2,3,IF(گوگل!G36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
@@ -4104,15 +4701,15 @@
       </c>
       <c r="K36" s="12">
         <f>IF(گوگل!K36=کلید!J$2,3,IF(گوگل!K36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12">
         <f>IF(گوگل!L36=کلید!K$2,3,IF(گوگل!L36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4126,47 +4723,47 @@
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4180,47 +4777,47 @@
       </c>
       <c r="C38" s="12">
         <f>IF(گوگل!C38=کلید!B$2,3,IF(گوگل!C38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="12">
         <f>IF(گوگل!D38=کلید!C$2,3,IF(گوگل!D38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="12">
         <f>IF(گوگل!E38=کلید!D$2,3,IF(گوگل!E38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
         <f>IF(گوگل!F38=کلید!E$2,3,IF(گوگل!F38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <f>IF(گوگل!G38=کلید!F$2,3,IF(گوگل!G38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" s="12">
         <f>IF(گوگل!I38=کلید!H$2,3,IF(گوگل!I38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="12">
         <f>IF(گوگل!J38=کلید!I$2,3,IF(گوگل!J38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <f>IF(گوگل!K38=کلید!J$2,3,IF(گوگل!K38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <f>IF(گوگل!L38=کلید!K$2,3,IF(گوگل!L38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4234,47 +4831,47 @@
       </c>
       <c r="C39" s="12">
         <f>IF(گوگل!C39=کلید!B$2,3,IF(گوگل!C39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="12">
         <f>IF(گوگل!D39=کلید!C$2,3,IF(گوگل!D39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="12">
         <f>IF(گوگل!E39=کلید!D$2,3,IF(گوگل!E39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
         <f>IF(گوگل!F39=کلید!E$2,3,IF(گوگل!F39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <f>IF(گوگل!G39=کلید!F$2,3,IF(گوگل!G39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
         <f>IF(گوگل!H39=کلید!G$2,3,IF(گوگل!H39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" s="12">
         <f>IF(گوگل!I39=کلید!H$2,3,IF(گوگل!I39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" s="12">
         <f>IF(گوگل!J39=کلید!I$2,3,IF(گوگل!J39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <f>IF(گوگل!K39=کلید!J$2,3,IF(گوگل!K39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <f>IF(گوگل!L39=کلید!K$2,3,IF(گوگل!L39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4288,47 +4885,47 @@
       </c>
       <c r="C40" s="12">
         <f>IF(گوگل!C40=کلید!B$2,3,IF(گوگل!C40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12">
         <f>IF(گوگل!D40=کلید!C$2,3,IF(گوگل!D40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
         <f>IF(گوگل!E40=کلید!D$2,3,IF(گوگل!E40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
         <f>IF(گوگل!F40=کلید!E$2,3,IF(گوگل!F40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="12">
         <f>IF(گوگل!G40=کلید!F$2,3,IF(گوگل!G40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12">
         <f>IF(گوگل!H40=کلید!G$2,3,IF(گوگل!H40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="12">
         <f>IF(گوگل!I40=کلید!H$2,3,IF(گوگل!I40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="12">
         <f>IF(گوگل!J40=کلید!I$2,3,IF(گوگل!J40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <f>IF(گوگل!K40=کلید!J$2,3,IF(گوگل!K40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="12">
         <f>IF(گوگل!L40=کلید!K$2,3,IF(گوگل!L40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4342,47 +4939,47 @@
       </c>
       <c r="C41" s="12">
         <f>IF(گوگل!C41=کلید!B$2,3,IF(گوگل!C41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12">
         <f>IF(گوگل!D41=کلید!C$2,3,IF(گوگل!D41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12">
         <f>IF(گوگل!E41=کلید!D$2,3,IF(گوگل!E41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
         <f>IF(گوگل!F41=کلید!E$2,3,IF(گوگل!F41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
         <f>IF(گوگل!G41=کلید!F$2,3,IF(گوگل!G41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12">
         <f>IF(گوگل!H41=کلید!G$2,3,IF(گوگل!H41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12">
         <f>IF(گوگل!I41=کلید!H$2,3,IF(گوگل!I41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="12">
         <f>IF(گوگل!J41=کلید!I$2,3,IF(گوگل!J41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <f>IF(گوگل!K41=کلید!J$2,3,IF(گوگل!K41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="12">
         <f>IF(گوگل!L41=کلید!K$2,3,IF(گوگل!L41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4396,47 +4993,47 @@
       </c>
       <c r="C42" s="12">
         <f>IF(گوگل!C42=کلید!B$2,3,IF(گوگل!C42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
         <f>IF(گوگل!D42=کلید!C$2,3,IF(گوگل!D42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
         <f>IF(گوگل!E42=کلید!D$2,3,IF(گوگل!E42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="12">
         <f>IF(گوگل!F42=کلید!E$2,3,IF(گوگل!F42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
         <f>IF(گوگل!G42=کلید!F$2,3,IF(گوگل!G42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12">
         <f>IF(گوگل!H42=کلید!G$2,3,IF(گوگل!H42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
         <f>IF(گوگل!I42=کلید!H$2,3,IF(گوگل!I42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="12">
         <f>IF(گوگل!J42=کلید!I$2,3,IF(گوگل!J42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <f>IF(گوگل!K42=کلید!J$2,3,IF(گوگل!K42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="12">
         <f>IF(گوگل!L42=کلید!K$2,3,IF(گوگل!L42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4450,47 +5047,47 @@
       </c>
       <c r="C43" s="12">
         <f>IF(گوگل!C43=کلید!B$2,3,IF(گوگل!C43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="12">
         <f>IF(گوگل!D43=کلید!C$2,3,IF(گوگل!D43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" s="12">
         <f>IF(گوگل!E43=کلید!D$2,3,IF(گوگل!E43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12">
         <f>IF(گوگل!F43=کلید!E$2,3,IF(گوگل!F43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12">
         <f>IF(گوگل!G43=کلید!F$2,3,IF(گوگل!G43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12">
         <f>IF(گوگل!H43=کلید!G$2,3,IF(گوگل!H43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" s="12">
         <f>IF(گوگل!I43=کلید!H$2,3,IF(گوگل!I43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="12">
         <f>IF(گوگل!J43=کلید!I$2,3,IF(گوگل!J43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f>IF(گوگل!K43=کلید!J$2,3,IF(گوگل!K43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="12">
         <f>IF(گوگل!L43=کلید!K$2,3,IF(گوگل!L43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4504,47 +5101,47 @@
       </c>
       <c r="C44" s="12">
         <f>IF(گوگل!C44=کلید!B$2,3,IF(گوگل!C44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f>IF(گوگل!D44=کلید!C$2,3,IF(گوگل!D44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>IF(گوگل!E44=کلید!D$2,3,IF(گوگل!E44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
         <f>IF(گوگل!F44=کلید!E$2,3,IF(گوگل!F44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
         <f>IF(گوگل!G44=کلید!F$2,3,IF(گوگل!G44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>IF(گوگل!H44=کلید!G$2,3,IF(گوگل!H44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <f>IF(گوگل!I44=کلید!H$2,3,IF(گوگل!I44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="12">
         <f>IF(گوگل!J44=کلید!I$2,3,IF(گوگل!J44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f>IF(گوگل!K44=کلید!J$2,3,IF(گوگل!K44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="12">
         <f>IF(گوگل!L44=کلید!K$2,3,IF(گوگل!L44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4649,11 +5246,11 @@
       </c>
       <c r="C2" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D2" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D2" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B2,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1008</v>
       </c>
       <c r="AMI2"/>
     </row>
@@ -4666,11 +5263,11 @@
       </c>
       <c r="C3" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D3" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D3" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B3,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1011</v>
       </c>
       <c r="AMI3"/>
     </row>
@@ -4683,11 +5280,11 @@
       </c>
       <c r="C4" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D4" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D4" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B4,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1026</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4732,11 +5329,11 @@
       </c>
       <c r="C6" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D6" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B6,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4756,11 +5353,11 @@
       </c>
       <c r="C7" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D7" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B7,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4780,11 +5377,11 @@
       </c>
       <c r="C8" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D8" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B8,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4828,11 +5425,11 @@
       </c>
       <c r="C10" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D10" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D10" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B10,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1024</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4873,11 +5470,11 @@
       </c>
       <c r="C12" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D12" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D12" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B12,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4894,11 +5491,11 @@
       </c>
       <c r="C13" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D13" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D13" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B13,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1023</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -4915,11 +5512,11 @@
       </c>
       <c r="C14" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D14" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D14" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B14,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1028</v>
       </c>
       <c r="AMI14"/>
     </row>
@@ -4932,11 +5529,11 @@
       </c>
       <c r="C15" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D15" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D15" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B15,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1005</v>
       </c>
       <c r="AMI15"/>
     </row>
@@ -4949,11 +5546,11 @@
       </c>
       <c r="C16" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D16" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D16" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B16,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1025</v>
       </c>
       <c r="AMI16"/>
     </row>
@@ -4966,11 +5563,11 @@
       </c>
       <c r="C17" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D17" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D17" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B17,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1007</v>
       </c>
       <c r="AMI17"/>
     </row>
@@ -4983,11 +5580,11 @@
       </c>
       <c r="C18" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D18" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D18" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B18,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1020</v>
       </c>
       <c r="AMI18"/>
     </row>
@@ -5000,11 +5597,11 @@
       </c>
       <c r="C19" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D19" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D19" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B19,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1034</v>
       </c>
       <c r="AMI19"/>
     </row>
@@ -5017,11 +5614,11 @@
       </c>
       <c r="C20" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D20" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D20" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B20,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1037</v>
       </c>
       <c r="AMI20"/>
     </row>
@@ -5034,11 +5631,11 @@
       </c>
       <c r="C21" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D21" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D21" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B21)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B21,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1040</v>
       </c>
       <c r="AMI21"/>
     </row>
@@ -5051,11 +5648,11 @@
       </c>
       <c r="C22" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D22" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D22" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B22,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1004</v>
       </c>
       <c r="AMI22"/>
     </row>
@@ -5068,11 +5665,11 @@
       </c>
       <c r="C23" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D23" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D23" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B23,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1014</v>
       </c>
       <c r="AMI23"/>
     </row>
@@ -5102,11 +5699,11 @@
       </c>
       <c r="C25" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D25" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D25" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B25,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1017</v>
       </c>
       <c r="AMI25"/>
     </row>
@@ -5136,11 +5733,11 @@
       </c>
       <c r="C27" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D27" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D27" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B27,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1033</v>
       </c>
       <c r="AMI27"/>
     </row>
@@ -5153,11 +5750,11 @@
       </c>
       <c r="C28" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D28" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D28" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B28)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B28,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1036</v>
       </c>
       <c r="AMI28"/>
     </row>
@@ -5170,11 +5767,11 @@
       </c>
       <c r="C29" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D29" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D29" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B29,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1003</v>
       </c>
       <c r="AMI29"/>
     </row>
@@ -5187,11 +5784,11 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D30" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D30" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B30,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1001</v>
       </c>
       <c r="AMI30"/>
     </row>
@@ -5221,11 +5818,11 @@
       </c>
       <c r="C32" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D32" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D32" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B32,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1022</v>
       </c>
       <c r="AMI32"/>
     </row>
@@ -5238,11 +5835,11 @@
       </c>
       <c r="C33" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D33" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D33" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B33,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1029</v>
       </c>
       <c r="AMI33"/>
     </row>
@@ -5255,11 +5852,11 @@
       </c>
       <c r="C34" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D34" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D34" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B34,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1038</v>
       </c>
       <c r="AMI34"/>
     </row>
@@ -5272,11 +5869,11 @@
       </c>
       <c r="C35" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D35" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D35" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B35)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B35,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1021</v>
       </c>
       <c r="AMI35"/>
     </row>
@@ -5289,11 +5886,11 @@
       </c>
       <c r="C36" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D36" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D36" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B36,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1015</v>
       </c>
       <c r="AMI36"/>
     </row>
@@ -5323,11 +5920,11 @@
       </c>
       <c r="C38" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D38" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D38" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B38,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1032</v>
       </c>
       <c r="AMI38"/>
     </row>
@@ -5357,11 +5954,11 @@
       </c>
       <c r="C40" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D40" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D40" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B40,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1010</v>
       </c>
       <c r="AMI40"/>
     </row>
@@ -5374,11 +5971,11 @@
       </c>
       <c r="C41" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D41" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D41" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B41,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1035</v>
       </c>
       <c r="AMI41"/>
     </row>
@@ -5391,11 +5988,11 @@
       </c>
       <c r="C42" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D42" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D42" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B42)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B42,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1006</v>
       </c>
       <c r="AMI42"/>
     </row>
@@ -5410,7 +6007,7 @@
       </c>
       <c r="C44" s="24">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -5514,57 +6111,57 @@
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -5574,57 +6171,57 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
@@ -5634,57 +6231,57 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -5744,7 +6341,7 @@
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>28</v>
@@ -5754,11 +6351,11 @@
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5766,7 +6363,7 @@
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5774,7 +6371,7 @@
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5782,11 +6379,11 @@
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5794,17 +6391,17 @@
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>37</v>
@@ -5814,11 +6411,11 @@
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5830,7 +6427,7 @@
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5850,21 +6447,21 @@
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>43</v>
@@ -5874,15 +6471,15 @@
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5898,11 +6495,11 @@
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5910,21 +6507,21 @@
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>46</v>
@@ -5984,7 +6581,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -5994,19 +6591,19 @@
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6018,11 +6615,11 @@
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6030,21 +6627,21 @@
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>45</v>
@@ -6104,7 +6701,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>25</v>
@@ -6114,15 +6711,15 @@
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6130,11 +6727,11 @@
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6142,7 +6739,7 @@
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6150,21 +6747,21 @@
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -6174,19 +6771,19 @@
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -6194,37 +6791,37 @@
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>16</v>
@@ -6234,7 +6831,7 @@
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6242,11 +6839,11 @@
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6254,7 +6851,7 @@
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6266,7 +6863,7 @@
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6278,13 +6875,13 @@
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>34</v>
@@ -6294,11 +6891,11 @@
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6306,7 +6903,7 @@
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6318,7 +6915,7 @@
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6330,21 +6927,21 @@
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>31</v>
@@ -6354,11 +6951,11 @@
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6370,7 +6967,7 @@
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6378,15 +6975,15 @@
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6398,13 +6995,13 @@
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>13</v>
@@ -6414,7 +7011,7 @@
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6422,7 +7019,7 @@
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6438,11 +7035,11 @@
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6458,13 +7055,13 @@
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -6474,57 +7071,57 @@
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>44</v>
@@ -6534,7 +7131,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
@@ -6558,19 +7155,19 @@
       </c>
       <c r="J19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N19" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
@@ -6584,7 +7181,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>29</v>
@@ -6594,7 +7191,7 @@
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6618,19 +7215,19 @@
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6638,13 +7235,13 @@
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
@@ -6654,7 +7251,7 @@
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -6666,15 +7263,15 @@
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -6682,7 +7279,7 @@
       </c>
       <c r="K21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -6690,21 +7287,21 @@
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -6714,23 +7311,23 @@
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
@@ -6738,33 +7335,33 @@
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -6774,11 +7371,11 @@
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6790,7 +7387,7 @@
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6802,7 +7399,7 @@
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6818,13 +7415,13 @@
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>35</v>
@@ -6884,7 +7481,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>23</v>
@@ -6894,39 +7491,39 @@
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6934,17 +7531,17 @@
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>40</v>
@@ -7004,7 +7601,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -7014,7 +7611,7 @@
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7022,7 +7619,7 @@
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7030,7 +7627,7 @@
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7046,7 +7643,7 @@
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7058,13 +7655,13 @@
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -7074,15 +7671,15 @@
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7090,7 +7687,7 @@
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7114,17 +7711,17 @@
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>26</v>
@@ -7134,15 +7731,15 @@
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -7150,15 +7747,15 @@
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -7178,13 +7775,13 @@
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>36</v>
@@ -7194,15 +7791,15 @@
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7210,7 +7807,7 @@
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7222,11 +7819,11 @@
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7238,13 +7835,13 @@
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>48</v>
@@ -7304,7 +7901,7 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
@@ -7314,15 +7911,15 @@
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -7330,7 +7927,7 @@
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -7342,15 +7939,15 @@
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -7358,13 +7955,13 @@
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>47</v>
@@ -7374,11 +7971,11 @@
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7386,11 +7983,11 @@
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7398,33 +7995,33 @@
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-26.666666666666668</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -7434,57 +8031,57 @@
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>24</v>
@@ -7494,7 +8091,7 @@
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7502,7 +8099,7 @@
       </c>
       <c r="F35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7522,7 +8119,7 @@
       </c>
       <c r="K35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7530,7 +8127,7 @@
       </c>
       <c r="M35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7538,13 +8135,13 @@
       </c>
       <c r="O35" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>61</v>
@@ -7554,15 +8151,15 @@
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
@@ -7570,41 +8167,41 @@
       </c>
       <c r="H36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -7664,7 +8261,7 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>58</v>
@@ -7674,7 +8271,7 @@
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
@@ -7682,7 +8279,7 @@
       </c>
       <c r="F38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
@@ -7702,11 +8299,11 @@
       </c>
       <c r="K38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
@@ -7718,13 +8315,13 @@
       </c>
       <c r="O38" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>59</v>
@@ -7784,7 +8381,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -7794,19 +8391,19 @@
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7814,37 +8411,37 @@
       </c>
       <c r="I40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -7854,15 +8451,15 @@
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7870,11 +8467,11 @@
       </c>
       <c r="H41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7882,11 +8479,11 @@
       </c>
       <c r="K41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7894,17 +8491,17 @@
       </c>
       <c r="N41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>27</v>
@@ -7914,11 +8511,11 @@
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -7930,7 +8527,7 @@
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -7946,7 +8543,7 @@
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -7958,7 +8555,7 @@
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -7993,43 +8590,43 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
@@ -8082,8 +8679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8115,7 +8712,7 @@
       </c>
       <c r="C2" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8139,7 +8736,7 @@
       </c>
       <c r="C4" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8151,7 +8748,7 @@
       </c>
       <c r="C5" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8760,7 @@
       </c>
       <c r="C6" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8175,7 +8772,7 @@
       </c>
       <c r="C7" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8187,7 +8784,7 @@
       </c>
       <c r="C8" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8199,7 +8796,7 @@
       </c>
       <c r="C9" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8211,7 +8808,7 @@
       </c>
       <c r="C10" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8223,7 +8820,7 @@
       </c>
       <c r="C11" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8235,7 +8832,7 @@
       </c>
       <c r="C12" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8271,7 +8868,7 @@
       </c>
       <c r="C15" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8283,7 +8880,7 @@
       </c>
       <c r="C16" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8307,7 +8904,7 @@
       </c>
       <c r="C18" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8319,7 +8916,7 @@
       </c>
       <c r="C19" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8343,7 +8940,7 @@
       </c>
       <c r="C21" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8355,7 +8952,7 @@
       </c>
       <c r="C22" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8367,7 +8964,7 @@
       </c>
       <c r="C23" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8379,7 +8976,7 @@
       </c>
       <c r="C24" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8391,7 +8988,7 @@
       </c>
       <c r="C25" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8403,7 +9000,7 @@
       </c>
       <c r="C26" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8415,7 +9012,7 @@
       </c>
       <c r="C27" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8439,7 +9036,7 @@
       </c>
       <c r="C29" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8451,7 +9048,7 @@
       </c>
       <c r="C30" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-26.666666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8463,7 +9060,7 @@
       </c>
       <c r="C31" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8487,7 +9084,7 @@
       </c>
       <c r="C33" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8499,7 +9096,7 @@
       </c>
       <c r="C34" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8523,7 +9120,7 @@
       </c>
       <c r="C36" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8535,7 +9132,7 @@
       </c>
       <c r="C37" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B37)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8547,7 +9144,7 @@
       </c>
       <c r="C38" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,7 +9156,7 @@
       </c>
       <c r="C39" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8571,7 +9168,7 @@
       </c>
       <c r="C40" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8583,7 +9180,7 @@
       </c>
       <c r="C41" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8608,8 +9205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8677,57 +9274,57 @@
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -8737,57 +9334,57 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
@@ -8797,159 +9394,159 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="23">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8957,35 +9554,35 @@
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C7" s="23">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8993,63 +9590,63 @@
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="23">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9057,55 +9654,55 @@
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C9" s="23">
-        <v>1012</v>
+        <v>1039</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9113,11 +9710,11 @@
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9125,7 +9722,7 @@
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9133,39 +9730,39 @@
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="23">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9173,7 +9770,7 @@
       </c>
       <c r="H10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9185,15 +9782,15 @@
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9201,27 +9798,27 @@
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9233,7 +9830,7 @@
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9241,15 +9838,15 @@
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9261,35 +9858,35 @@
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9297,63 +9894,63 @@
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9361,115 +9958,115 @@
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="23">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C15" s="23">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9481,11 +10078,11 @@
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9493,35 +10090,35 @@
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9533,7 +10130,7 @@
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9545,7 +10142,7 @@
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9561,23 +10158,23 @@
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C17" s="23">
-        <v>1007</v>
+        <v>1033</v>
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9585,7 +10182,7 @@
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9593,7 +10190,7 @@
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9609,7 +10206,7 @@
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9621,31 +10218,31 @@
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C18" s="23">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9653,11 +10250,11 @@
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9665,11 +10262,11 @@
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9677,31 +10274,31 @@
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19" s="23">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9713,7 +10310,7 @@
       </c>
       <c r="H19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9729,7 +10326,7 @@
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9741,27 +10338,27 @@
       </c>
       <c r="O19" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C20" s="23">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9773,7 +10370,7 @@
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9793,39 +10390,39 @@
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="23">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9833,7 +10430,7 @@
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9857,35 +10454,35 @@
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="23">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9901,11 +10498,11 @@
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9913,31 +10510,31 @@
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="23">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9949,15 +10546,15 @@
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9965,7 +10562,7 @@
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9973,31 +10570,31 @@
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C24" s="23">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10005,7 +10602,7 @@
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10021,11 +10618,11 @@
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10041,23 +10638,23 @@
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C25" s="23">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10065,7 +10662,7 @@
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10085,11 +10682,11 @@
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10101,23 +10698,23 @@
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C26" s="23">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10125,11 +10722,11 @@
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10137,7 +10734,7 @@
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10149,7 +10746,7 @@
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10161,31 +10758,31 @@
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C27" s="23">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10193,15 +10790,15 @@
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10221,27 +10818,27 @@
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C28" s="23">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10249,7 +10846,7 @@
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10257,7 +10854,7 @@
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10265,11 +10862,11 @@
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10277,23 +10874,23 @@
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="23">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
@@ -10347,13 +10944,13 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="23">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
@@ -10407,13 +11004,13 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="23">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
@@ -10467,17 +11064,17 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C32" s="23">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10501,19 +11098,19 @@
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10527,13 +11124,13 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C33" s="23">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
@@ -10587,13 +11184,13 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C34" s="23">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
@@ -10647,13 +11244,13 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C35" s="23">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
@@ -10707,13 +11304,13 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C36" s="23">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
@@ -10767,13 +11364,13 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C37" s="23">
-        <v>1027</v>
+        <v>1041</v>
       </c>
       <c r="D37" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C37)=1,"حاضر","غایب")</f>
@@ -10827,21 +11424,21 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C38" s="23">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10849,7 +11446,7 @@
       </c>
       <c r="G38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10861,7 +11458,7 @@
       </c>
       <c r="J38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10873,39 +11470,39 @@
       </c>
       <c r="M38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C39" s="23">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10913,7 +11510,7 @@
       </c>
       <c r="H39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10925,11 +11522,11 @@
       </c>
       <c r="K39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10941,23 +11538,23 @@
       </c>
       <c r="O39" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C40" s="23">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10965,7 +11562,7 @@
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10985,7 +11582,7 @@
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10993,7 +11590,7 @@
       </c>
       <c r="M40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11001,23 +11598,23 @@
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C41" s="23">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11041,19 +11638,19 @@
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11061,27 +11658,27 @@
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C42" s="23">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11089,11 +11686,11 @@
       </c>
       <c r="G42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11101,27 +11698,27 @@
       </c>
       <c r="J42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-26.666666666666668</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.8" x14ac:dyDescent="0.5">
@@ -11156,49 +11753,52 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:O42">
+    <sortCondition descending="1" ref="O2:O42"/>
+  </sortState>
   <conditionalFormatting sqref="D2:D42">
     <cfRule type="cellIs" dxfId="35" priority="60" operator="equal">
       <formula>"غایب"</formula>

--- a/week 6/ریاضی/Skale(V3.6).xlsx
+++ b/week 6/ریاضی/Skale(V3.6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="77">
   <si>
     <t>نام</t>
   </si>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L27"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2531,18 +2531,42 @@
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="44"/>
+      <c r="A37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="44">
+        <v>1016</v>
+      </c>
+      <c r="C37" s="44">
+        <v>2</v>
+      </c>
+      <c r="D37" s="44">
+        <v>1</v>
+      </c>
+      <c r="E37" s="44">
+        <v>3</v>
+      </c>
+      <c r="F37" s="44">
+        <v>4</v>
+      </c>
+      <c r="G37" s="44">
+        <v>3</v>
+      </c>
+      <c r="H37" s="44">
+        <v>2</v>
+      </c>
+      <c r="I37" s="44">
+        <v>3</v>
+      </c>
+      <c r="J37" s="44">
+        <v>1</v>
+      </c>
+      <c r="K37" s="44">
+        <v>2</v>
+      </c>
+      <c r="L37" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
@@ -4713,57 +4737,57 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="11" t="str">
         <f>گوگل!A37</f>
-        <v>0</v>
+        <v>ایلیا دوروزه</v>
       </c>
       <c r="B37" s="11">
         <f>گوگل!B37</f>
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -5209,7 +5233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -5801,11 +5825,11 @@
       </c>
       <c r="C31" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D31" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D31" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B31,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1016</v>
       </c>
       <c r="AMI31"/>
     </row>
@@ -6007,7 +6031,7 @@
       </c>
       <c r="C44" s="24">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -6161,7 +6185,7 @@
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -6221,7 +6245,7 @@
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
@@ -6281,7 +6305,7 @@
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -6341,7 +6365,7 @@
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>28</v>
@@ -6401,7 +6425,7 @@
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>37</v>
@@ -6461,7 +6485,7 @@
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>43</v>
@@ -6521,7 +6545,7 @@
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>46</v>
@@ -6581,7 +6605,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -6641,7 +6665,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>45</v>
@@ -6701,7 +6725,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>25</v>
@@ -6761,7 +6785,7 @@
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -6821,7 +6845,7 @@
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>16</v>
@@ -6941,7 +6965,7 @@
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>31</v>
@@ -7001,7 +7025,7 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>13</v>
@@ -7061,7 +7085,7 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -7121,7 +7145,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>44</v>
@@ -7241,7 +7265,7 @@
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
@@ -7301,7 +7325,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -7361,7 +7385,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -7421,7 +7445,7 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>35</v>
@@ -7481,7 +7505,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>23</v>
@@ -7541,7 +7565,7 @@
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>40</v>
@@ -7601,7 +7625,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -7661,7 +7685,7 @@
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -7721,7 +7745,7 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>26</v>
@@ -7841,7 +7865,7 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>48</v>
@@ -7851,57 +7875,57 @@
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
@@ -8021,7 +8045,7 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -8141,7 +8165,7 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>61</v>
@@ -8201,7 +8225,7 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -8261,7 +8285,7 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>58</v>
@@ -8321,7 +8345,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>59</v>
@@ -8381,7 +8405,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -8441,7 +8465,7 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -8501,7 +8525,7 @@
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>27</v>
@@ -8679,7 +8703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
@@ -8892,7 +8916,7 @@
       </c>
       <c r="C17" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9205,8 +9229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9324,13 +9348,13 @@
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C3" s="23">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
@@ -9350,7 +9374,7 @@
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9378,19 +9402,19 @@
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="23">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
@@ -9410,7 +9434,7 @@
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9426,7 +9450,7 @@
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9444,13 +9468,13 @@
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="23">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
@@ -9458,7 +9482,7 @@
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9486,7 +9510,7 @@
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9504,13 +9528,13 @@
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="23">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
@@ -9518,7 +9542,7 @@
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9538,7 +9562,7 @@
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9550,7 +9574,7 @@
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9558,19 +9582,19 @@
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>76.666666666666671</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C7" s="23">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
@@ -9582,11 +9606,11 @@
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9598,7 +9622,7 @@
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9610,7 +9634,7 @@
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9624,13 +9648,13 @@
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C8" s="23">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
@@ -9642,15 +9666,15 @@
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9674,7 +9698,7 @@
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -9684,13 +9708,13 @@
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C9" s="23">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
@@ -9706,11 +9730,11 @@
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9718,7 +9742,7 @@
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9726,7 +9750,7 @@
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9734,11 +9758,11 @@
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>70</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9747,10 +9771,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="23">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
@@ -9774,7 +9798,7 @@
       </c>
       <c r="I10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9786,7 +9810,7 @@
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9794,11 +9818,11 @@
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9807,10 +9831,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" s="23">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
@@ -9822,7 +9846,7 @@
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9838,7 +9862,7 @@
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9850,7 +9874,7 @@
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9858,7 +9882,7 @@
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9867,10 +9891,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
@@ -9882,27 +9906,27 @@
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9910,27 +9934,27 @@
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>36.666666666666664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
@@ -9942,7 +9966,7 @@
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9950,19 +9974,19 @@
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9970,11 +9994,11 @@
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -9984,13 +10008,13 @@
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C14" s="23">
-        <v>1038</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
@@ -9998,11 +10022,11 @@
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10010,19 +10034,19 @@
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10034,11 +10058,11 @@
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10047,10 +10071,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="23">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
@@ -10058,11 +10082,11 @@
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10070,15 +10094,15 @@
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10086,11 +10110,11 @@
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10098,19 +10122,19 @@
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>30</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C16" s="23">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
@@ -10122,15 +10146,15 @@
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10138,11 +10162,11 @@
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10150,11 +10174,11 @@
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -10164,13 +10188,13 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
@@ -10178,11 +10202,11 @@
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10202,11 +10226,11 @@
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10224,13 +10248,13 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C18" s="23">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
@@ -10238,7 +10262,7 @@
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10254,7 +10278,7 @@
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10262,11 +10286,11 @@
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10274,7 +10298,7 @@
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
@@ -10284,13 +10308,13 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19" s="23">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
@@ -10302,7 +10326,7 @@
       </c>
       <c r="F19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10314,7 +10338,7 @@
       </c>
       <c r="I19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10322,11 +10346,11 @@
       </c>
       <c r="K19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10334,7 +10358,7 @@
       </c>
       <c r="N19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
@@ -10344,13 +10368,13 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C20" s="23">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
@@ -10386,31 +10410,31 @@
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>26.666666666666668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="23">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
@@ -10422,7 +10446,7 @@
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10450,7 +10474,7 @@
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10464,13 +10488,13 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="23">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
@@ -10490,7 +10514,7 @@
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10498,11 +10522,11 @@
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10510,7 +10534,7 @@
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10518,19 +10542,19 @@
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>20</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="23">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
@@ -10538,31 +10562,31 @@
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10570,11 +10594,11 @@
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -10584,13 +10608,13 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C24" s="23">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
@@ -10602,23 +10626,23 @@
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10630,27 +10654,27 @@
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>16.666666666666664</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C25" s="23">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
@@ -10662,7 +10686,7 @@
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10678,15 +10702,15 @@
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10704,13 +10728,13 @@
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C26" s="23">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
@@ -10726,7 +10750,7 @@
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10734,7 +10758,7 @@
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10742,7 +10766,7 @@
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10758,7 +10782,7 @@
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>13.333333333333334</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10767,10 +10791,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C27" s="23">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
@@ -10778,27 +10802,27 @@
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10806,7 +10830,7 @@
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10818,7 +10842,7 @@
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>10</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10827,10 +10851,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
@@ -10842,31 +10866,31 @@
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10874,11 +10898,11 @@
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>6.666666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10887,18 +10911,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C29" s="23">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10906,7 +10930,7 @@
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10914,7 +10938,7 @@
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10922,11 +10946,11 @@
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10934,23 +10958,23 @@
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C30" s="23">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
@@ -11004,13 +11028,13 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="23">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
@@ -11064,17 +11088,17 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="23">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>حاضر</v>
+        <v>غایب</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11098,19 +11122,19 @@
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11124,17 +11148,17 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C33" s="23">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11158,19 +11182,19 @@
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11184,13 +11208,13 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C34" s="23">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
@@ -11244,13 +11268,13 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C35" s="23">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
@@ -11304,7 +11328,7 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>12</v>
@@ -11364,7 +11388,7 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>59</v>
